--- a/medicine/Enfance/Grand_Prix_de_Bratislava/Grand_Prix_de_Bratislava.xlsx
+++ b/medicine/Enfance/Grand_Prix_de_Bratislava/Grand_Prix_de_Bratislava.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Grand Prix de Bratislava (ou Grand Prix BIB) est un prix décerné à des illustrateurs lors de la Biennale d'illustration de Bratislava (BIB), biennale internationale se déroulant les années impaires à Bratislava en Slovaquie.
 Durant la BIB, et depuis sa création en 1967, un jury international décerne trois prix aux meilleurs illustrateurs, pour leurs ouvrages jeunesse : Grand Prix BIB, Golden Apple BIB (Pomme d'Or de Bratislava) et Plaque BIB (Plaque d'Or de Bratislava ou Plaquette d'Or, selon les traductions françaises).
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 1967, après 56 années et 28 éditions jusqu'en 2023, trois illustrateurs français ont reçu le Grand Prix BIB : Frédéric Clément en 1985[1], Martin Jarrie en 1997[2], et Éric Battut en 2001.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1967, après 56 années et 28 éditions jusqu'en 2023, trois illustrateurs français ont reçu le Grand Prix BIB : Frédéric Clément en 1985, Martin Jarrie en 1997, et Éric Battut en 2001.
 Trois lauréats du Grand Prix est le plus haut palmarès d'un pays, à ce jour. Trois autres pays ont reçu trois Grands Prix : l'Allemagne, le Japon et la Pologne.
 L'Italien Lorenzo Mattotti l'a reçu en 1993.
 Le pays organisateur, la Slovaquie, a récompensé un lauréat de sa nationalité en 1983, Dušan Kállay ; également lauréat d'un autre prestigieux prix international, le Prix Hans Christian Andersen Illustration en 1988.
@@ -547,7 +561,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1967 :  Yasuo Segawa
 1969 :  Eva Bednářová pour ses illustrations de Contes chinois
@@ -564,19 +580,19 @@
 1991 :  Stasys Eidrigevičius
 1993 :  Lorenzo Mattotti pour Eugenio (texte de Marianne Cockenpot) (Seuil Jeunesse)
 1995 :  John A. Rowe pour Bébé corbeau et pour L'origine des tatous (texte de Rudyard Kipling)
-1997 :  Martin Jarrie[2] pour Toc, Toc ! Monsieur Cric-Crac ! (texte de Alain Serres) (Nathan) et pour Le Colosse machinal (texte de Michel Chaillou) (Nathan)
+1997 :  Martin Jarrie pour Toc, Toc ! Monsieur Cric-Crac ! (texte de Alain Serres) (Nathan) et pour Le Colosse machinal (texte de Michel Chaillou) (Nathan)
 1999 :  Etsuko Nakatsuji
 2001 :  Éric Battut pour Au fil des mois (Didier Jeunesse) et pour La Barbe bleue (texte de Charles Perrault) (Bilboquet)
 2003 :  Iku Dekune
-2005 :  Ali Reza Goldouzian[3]
+2005 :  Ali Reza Goldouzian
 2007 :  Einar Turkowski pour Es war finster und merkwürdig still: eine Küstengeschichte
 2009 :  José Antonio Tàssies Penella, pseudonyme Tàssies, pour El nen perdut
-2011 :  Eun-Young Cho pour Run run Toto! (traduction française La course[4], éditions MeMo)
-2013 :  Evelyne Laube et Nina Wehrle, co-auteures de Die Grosse Flut[5]
+2011 :  Eun-Young Cho pour Run run Toto! (traduction française La course, éditions MeMo)
+2013 :  Evelyne Laube et Nina Wehrle, co-auteures de Die Grosse Flut
 2015 :  Laura Carlin pour  A world of your own et pour The iron man (texte de Ted Hughes)
 2017 :  Ludwig Volbeda pour  De vogels (texte de Ted van Lieshout)
-2019 :  Hassan Moosavi pour Boxer[6]
-2021 :  Elena Odriozola[7] pour Mixed Feelings
+2019 :  Hassan Moosavi pour Boxer
+2021 :  Elena Odriozola pour Mixed Feelings
 2023 :  Paloma Valdivia</t>
         </is>
       </c>
